--- a/C/atv3/Analytics/quicksort-cpp.txt.xlsx
+++ b/C/atv3/Analytics/quicksort-cpp.txt.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,6 +27,11 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,11 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -589,7 +595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,7 +603,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="31" customWidth="1" min="1" max="1"/>
     <col width="21" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
@@ -615,71 +621,71 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0236864</v>
+        <v>0.0234295</v>
       </c>
       <c r="B2" t="n">
-        <v>3452</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0199871</v>
+        <v>0.0192205</v>
       </c>
       <c r="B3" t="n">
-        <v>3524</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0204763</v>
+        <v>0.0280111</v>
       </c>
       <c r="B4" t="n">
-        <v>3592</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0270602</v>
+        <v>0.0189962</v>
       </c>
       <c r="B5" t="n">
-        <v>3524</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0195632</v>
+        <v>0.0194597</v>
       </c>
       <c r="B6" t="n">
-        <v>3460</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0193358</v>
+        <v>0.0193044</v>
       </c>
       <c r="B7" t="n">
-        <v>3516</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0192713</v>
+        <v>0.0193789</v>
       </c>
       <c r="B8" t="n">
-        <v>3612</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0190144</v>
+        <v>0.0193449</v>
       </c>
       <c r="B9" t="n">
-        <v>3596</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0191297</v>
+        <v>0.0194718</v>
       </c>
       <c r="B10" t="n">
         <v>3592</v>
@@ -687,10 +693,50 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0191138</v>
+        <v>0.0227491</v>
       </c>
       <c r="B11" t="n">
-        <v>3612</v>
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Média Tempo de Execução (s)</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02093661</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Mediana Tempo de Execução (s)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0194193</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Média Uso de Memória (KB)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Mediana Uso de Memória (KB)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3506</v>
       </c>
     </row>
   </sheetData>
